--- a/Expenses.xlsx
+++ b/Expenses.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2940" yWindow="3576" windowWidth="17280" windowHeight="9420" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="1st year" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,7 +11,7 @@
     <sheet name="&quot;Leftover" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -57,12 +57,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -497,25 +499,16 @@
           <t>August</t>
         </is>
       </c>
-      <c r="B2" s="3" t="n">
-        <v>250</v>
-      </c>
-      <c r="C2" s="3">
-        <f>56/3</f>
-        <v/>
-      </c>
-      <c r="D2" s="3">
-        <f>40/3</f>
-        <v/>
-      </c>
-      <c r="E2" s="3" t="n">
+      <c r="B2" s="4" t="n">
+        <v>250</v>
+      </c>
+      <c r="C2" s="4" t="n"/>
+      <c r="D2" s="4" t="n"/>
+      <c r="E2" s="4" t="n">
         <v>14</v>
       </c>
-      <c r="F2" s="3" t="n"/>
-      <c r="H2" s="4">
-        <f>SUM(C2:F2)</f>
-        <v/>
-      </c>
+      <c r="F2" s="4" t="n"/>
+      <c r="H2" s="5" t="n"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -523,27 +516,18 @@
           <t>September</t>
         </is>
       </c>
-      <c r="B3" s="3" t="n">
-        <v>250</v>
-      </c>
-      <c r="C3" s="3">
-        <f>82.35/2</f>
-        <v/>
-      </c>
-      <c r="D3" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="E3" s="3" t="n">
+      <c r="B3" s="4" t="n">
+        <v>250</v>
+      </c>
+      <c r="C3" s="4" t="n"/>
+      <c r="D3" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="E3" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="F3" s="3">
-        <f>24+(3.79/2)</f>
-        <v/>
-      </c>
-      <c r="H3" s="4">
-        <f>SUM(C3:F3)</f>
-        <v/>
-      </c>
+      <c r="F3" s="4" t="n"/>
+      <c r="H3" s="5" t="n"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -551,24 +535,18 @@
           <t>October</t>
         </is>
       </c>
-      <c r="B4" s="3" t="n">
-        <v>250</v>
-      </c>
-      <c r="C4" s="3">
-        <f>65.09/2</f>
-        <v/>
-      </c>
-      <c r="D4" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="E4" s="3" t="n">
+      <c r="B4" s="4" t="n">
+        <v>250</v>
+      </c>
+      <c r="C4" s="4" t="n"/>
+      <c r="D4" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="E4" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="F4" s="3" t="n"/>
-      <c r="H4" s="4">
-        <f>SUM(C4:F4)</f>
-        <v/>
-      </c>
+      <c r="F4" s="4" t="n"/>
+      <c r="H4" s="5" t="n"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -576,26 +554,20 @@
           <t>November</t>
         </is>
       </c>
-      <c r="B5" s="3" t="n">
-        <v>250</v>
-      </c>
-      <c r="C5" s="3">
-        <f>45.48/2</f>
-        <v/>
-      </c>
-      <c r="D5" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="E5" s="3" t="n">
+      <c r="B5" s="4" t="n">
+        <v>250</v>
+      </c>
+      <c r="C5" s="4" t="n"/>
+      <c r="D5" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="E5" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="F5" s="3" t="n">
+      <c r="F5" s="4" t="n">
         <v>6.7</v>
       </c>
-      <c r="H5" s="4">
-        <f>SUM(C5:F5)</f>
-        <v/>
-      </c>
+      <c r="H5" s="5" t="n"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -603,24 +575,18 @@
           <t>December</t>
         </is>
       </c>
-      <c r="B6" s="3" t="n">
-        <v>250</v>
-      </c>
-      <c r="C6" s="3">
-        <f>38.72/2</f>
-        <v/>
-      </c>
-      <c r="D6" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="E6" s="3" t="n">
+      <c r="B6" s="4" t="n">
+        <v>250</v>
+      </c>
+      <c r="C6" s="4" t="n"/>
+      <c r="D6" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="E6" s="4" t="n">
         <v>16</v>
       </c>
-      <c r="F6" s="3" t="n"/>
-      <c r="H6" s="4">
-        <f>SUM(C6:F6)</f>
-        <v/>
-      </c>
+      <c r="F6" s="4" t="n"/>
+      <c r="H6" s="5" t="n"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -628,27 +594,18 @@
           <t>January</t>
         </is>
       </c>
-      <c r="B7" s="3" t="n">
-        <v>250</v>
-      </c>
-      <c r="C7" s="3">
-        <f>31.91/2</f>
-        <v/>
-      </c>
-      <c r="D7" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="E7" s="3" t="n">
+      <c r="B7" s="4" t="n">
+        <v>250</v>
+      </c>
+      <c r="C7" s="4" t="n"/>
+      <c r="D7" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="E7" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="F7" s="3">
-        <f>30/2</f>
-        <v/>
-      </c>
-      <c r="H7" s="4">
-        <f>SUM(C7:F7)</f>
-        <v/>
-      </c>
+      <c r="F7" s="4" t="n"/>
+      <c r="H7" s="5" t="n"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -656,32 +613,23 @@
           <t>February</t>
         </is>
       </c>
-      <c r="B8" s="3" t="n">
-        <v>250</v>
-      </c>
-      <c r="C8" s="3">
-        <f>50.87/2</f>
-        <v/>
-      </c>
-      <c r="D8" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="E8" s="3" t="n">
+      <c r="B8" s="4" t="n">
+        <v>250</v>
+      </c>
+      <c r="C8" s="4" t="n"/>
+      <c r="D8" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="E8" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="F8" s="3">
-        <f>13.5/2</f>
-        <v/>
-      </c>
+      <c r="F8" s="4" t="n"/>
       <c r="G8" t="inlineStr">
         <is>
           <t>paper towels</t>
         </is>
       </c>
-      <c r="H8" s="4">
-        <f>SUM(C8:F8)</f>
-        <v/>
-      </c>
+      <c r="H8" s="5" t="n"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -689,20 +637,17 @@
           <t>March</t>
         </is>
       </c>
-      <c r="B9" s="3" t="n">
-        <v>250</v>
-      </c>
-      <c r="C9" s="3">
-        <f>35.69/2</f>
-        <v/>
-      </c>
-      <c r="D9" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="E9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3" t="n">
+      <c r="B9" s="4" t="n">
+        <v>250</v>
+      </c>
+      <c r="C9" s="4" t="n"/>
+      <c r="D9" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4" t="n">
         <v>5</v>
       </c>
       <c r="G9" t="inlineStr">
@@ -710,10 +655,7 @@
           <t>garbage bags</t>
         </is>
       </c>
-      <c r="H9" s="4">
-        <f>SUM(C9:F9)</f>
-        <v/>
-      </c>
+      <c r="H9" s="5" t="n"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -721,32 +663,23 @@
           <t>April</t>
         </is>
       </c>
-      <c r="B10" s="3" t="n">
-        <v>250</v>
-      </c>
-      <c r="C10" s="3">
-        <f>55.97/2</f>
-        <v/>
-      </c>
-      <c r="D10" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="E10" s="3" t="n">
+      <c r="B10" s="4" t="n">
+        <v>250</v>
+      </c>
+      <c r="C10" s="4" t="n"/>
+      <c r="D10" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="E10" s="4" t="n">
         <v>18</v>
       </c>
-      <c r="F10" s="3">
-        <f>2+5/2</f>
-        <v/>
-      </c>
+      <c r="F10" s="4" t="n"/>
       <c r="G10" t="inlineStr">
         <is>
           <t>bagel, soap</t>
         </is>
       </c>
-      <c r="H10" s="4">
-        <f>SUM(C10:F10)</f>
-        <v/>
-      </c>
+      <c r="H10" s="5" t="n"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -754,24 +687,18 @@
           <t>May</t>
         </is>
       </c>
-      <c r="B11" s="3" t="n">
-        <v>250</v>
-      </c>
-      <c r="C11" s="3">
-        <f>39.76/2</f>
-        <v/>
-      </c>
-      <c r="D11" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="E11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="3" t="n"/>
-      <c r="H11" s="4">
-        <f>SUM(C11:F11)</f>
-        <v/>
-      </c>
+      <c r="B11" s="4" t="n">
+        <v>250</v>
+      </c>
+      <c r="C11" s="4" t="n"/>
+      <c r="D11" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4" t="n"/>
+      <c r="H11" s="5" t="n"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -779,24 +706,18 @@
           <t>June</t>
         </is>
       </c>
-      <c r="B12" s="3" t="n">
-        <v>250</v>
-      </c>
-      <c r="C12" s="3">
-        <f>17.88/2</f>
-        <v/>
-      </c>
-      <c r="D12" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="E12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3" t="n"/>
-      <c r="H12" s="4">
-        <f>SUM(C12:F12)</f>
-        <v/>
-      </c>
+      <c r="B12" s="4" t="n">
+        <v>250</v>
+      </c>
+      <c r="C12" s="4" t="n"/>
+      <c r="D12" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="E12" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4" t="n"/>
+      <c r="H12" s="5" t="n"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -804,28 +725,28 @@
           <t>July</t>
         </is>
       </c>
-      <c r="B13" s="3" t="n"/>
-      <c r="C13" s="3" t="n"/>
-      <c r="D13" s="3" t="n"/>
-      <c r="E13" s="3" t="n"/>
-      <c r="F13" s="3" t="n"/>
-      <c r="H13" s="3" t="n"/>
+      <c r="B13" s="4" t="n"/>
+      <c r="C13" s="4" t="n"/>
+      <c r="D13" s="4" t="n"/>
+      <c r="E13" s="4" t="n"/>
+      <c r="F13" s="4" t="n"/>
+      <c r="H13" s="4" t="n"/>
     </row>
     <row r="14">
-      <c r="B14" s="3" t="n"/>
-      <c r="C14" s="3" t="n"/>
-      <c r="D14" s="3" t="n"/>
-      <c r="E14" s="3" t="n"/>
-      <c r="F14" s="3" t="n"/>
-      <c r="H14" s="3" t="n"/>
+      <c r="B14" s="4" t="n"/>
+      <c r="C14" s="4" t="n"/>
+      <c r="D14" s="4" t="n"/>
+      <c r="E14" s="4" t="n"/>
+      <c r="F14" s="4" t="n"/>
+      <c r="H14" s="4" t="n"/>
     </row>
     <row r="15">
-      <c r="B15" s="3" t="n"/>
-      <c r="C15" s="3" t="n"/>
-      <c r="D15" s="3" t="n"/>
-      <c r="E15" s="3" t="n"/>
-      <c r="F15" s="3" t="n"/>
-      <c r="H15" s="3" t="n"/>
+      <c r="B15" s="4" t="n"/>
+      <c r="C15" s="4" t="n"/>
+      <c r="D15" s="4" t="n"/>
+      <c r="E15" s="4" t="n"/>
+      <c r="F15" s="4" t="n"/>
+      <c r="H15" s="4" t="n"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -833,10 +754,7 @@
           <t>Paid</t>
         </is>
       </c>
-      <c r="B27" s="4">
-        <f>SUM(B2:B9)</f>
-        <v/>
-      </c>
+      <c r="B27" s="5" t="n"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -844,10 +762,7 @@
           <t>Unpaid</t>
         </is>
       </c>
-      <c r="B28" s="4">
-        <f>SUM(B10:B24)</f>
-        <v/>
-      </c>
+      <c r="B28" s="5" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -863,7 +778,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -871,6 +786,8 @@
     <col width="11" customWidth="1" min="1" max="1"/>
     <col width="10.88671875" customWidth="1" min="2" max="2"/>
     <col width="9.5546875" customWidth="1" min="3" max="3"/>
+    <col width="14.77734375" customWidth="1" min="5" max="5"/>
+    <col width="15.6640625" customWidth="1" min="6" max="6"/>
     <col width="13.5546875" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
@@ -917,22 +834,21 @@
           <t>August</t>
         </is>
       </c>
-      <c r="B2" s="3" t="n">
-        <v>250</v>
-      </c>
-      <c r="C2" s="3" t="n"/>
-      <c r="D2" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="E2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="4">
-        <f>SUM(C2:F2)</f>
-        <v/>
+      <c r="B2" s="4" t="n">
+        <v>250</v>
+      </c>
+      <c r="C2" s="4" t="n"/>
+      <c r="D2" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -941,22 +857,21 @@
           <t>September</t>
         </is>
       </c>
-      <c r="B3" s="3" t="n">
-        <v>250</v>
-      </c>
-      <c r="C3" s="3" t="n"/>
-      <c r="D3" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="E3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4">
-        <f>SUM(C3:F3)</f>
-        <v/>
+      <c r="B3" s="4" t="n">
+        <v>250</v>
+      </c>
+      <c r="C3" s="4" t="n"/>
+      <c r="D3" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -965,22 +880,21 @@
           <t>October</t>
         </is>
       </c>
-      <c r="B4" s="3" t="n">
-        <v>250</v>
-      </c>
-      <c r="C4" s="3" t="n"/>
-      <c r="D4" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="E4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4">
-        <f>SUM(C4:F4)</f>
-        <v/>
+      <c r="B4" s="4" t="n">
+        <v>250</v>
+      </c>
+      <c r="C4" s="4" t="n"/>
+      <c r="D4" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -989,22 +903,21 @@
           <t>November</t>
         </is>
       </c>
-      <c r="B5" s="3" t="n">
-        <v>250</v>
-      </c>
-      <c r="C5" s="3" t="n"/>
-      <c r="D5" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="E5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4">
-        <f>SUM(C5:F5)</f>
-        <v/>
+      <c r="B5" s="4" t="n">
+        <v>250</v>
+      </c>
+      <c r="C5" s="4" t="n"/>
+      <c r="D5" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="6">
@@ -1013,22 +926,21 @@
           <t>December</t>
         </is>
       </c>
-      <c r="B6" s="3" t="n">
-        <v>250</v>
-      </c>
-      <c r="C6" s="3" t="n"/>
-      <c r="D6" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="E6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4">
-        <f>SUM(C6:F6)</f>
-        <v/>
+      <c r="B6" s="4" t="n">
+        <v>250</v>
+      </c>
+      <c r="C6" s="4" t="n"/>
+      <c r="D6" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="7">
@@ -1037,22 +949,21 @@
           <t>January</t>
         </is>
       </c>
-      <c r="B7" s="3" t="n">
-        <v>250</v>
-      </c>
-      <c r="C7" s="3" t="n"/>
-      <c r="D7" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="E7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="4">
-        <f>SUM(C7:F7)</f>
-        <v/>
+      <c r="B7" s="4" t="n">
+        <v>250</v>
+      </c>
+      <c r="C7" s="4" t="n"/>
+      <c r="D7" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="8">
@@ -1061,22 +972,21 @@
           <t>February</t>
         </is>
       </c>
-      <c r="B8" s="3" t="n">
-        <v>250</v>
-      </c>
-      <c r="C8" s="3" t="n"/>
-      <c r="D8" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="E8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="4">
-        <f>SUM(C8:F8)</f>
-        <v/>
+      <c r="B8" s="4" t="n">
+        <v>250</v>
+      </c>
+      <c r="C8" s="4" t="n"/>
+      <c r="D8" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -1085,22 +995,21 @@
           <t>March</t>
         </is>
       </c>
-      <c r="B9" s="3" t="n">
-        <v>250</v>
-      </c>
-      <c r="C9" s="3" t="n"/>
-      <c r="D9" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="E9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="4">
-        <f>SUM(C9:F9)</f>
-        <v/>
+      <c r="B9" s="4" t="n">
+        <v>250</v>
+      </c>
+      <c r="C9" s="4" t="n"/>
+      <c r="D9" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="10">
@@ -1109,22 +1018,21 @@
           <t>April</t>
         </is>
       </c>
-      <c r="B10" s="3" t="n">
-        <v>250</v>
-      </c>
-      <c r="C10" s="3" t="n"/>
-      <c r="D10" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="E10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4">
-        <f>SUM(C10:F10)</f>
-        <v/>
+      <c r="B10" s="4" t="n">
+        <v>250</v>
+      </c>
+      <c r="C10" s="4" t="n"/>
+      <c r="D10" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="11">
@@ -1133,22 +1041,21 @@
           <t>May</t>
         </is>
       </c>
-      <c r="B11" s="3" t="n">
-        <v>250</v>
-      </c>
-      <c r="C11" s="3" t="n"/>
-      <c r="D11" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="E11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="4">
-        <f>SUM(C11:F11)</f>
-        <v/>
+      <c r="B11" s="4" t="n">
+        <v>250</v>
+      </c>
+      <c r="C11" s="4" t="n"/>
+      <c r="D11" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="12">
@@ -1157,24 +1064,23 @@
           <t>June</t>
         </is>
       </c>
-      <c r="B12" s="3" t="n">
-        <v>250</v>
-      </c>
-      <c r="C12" s="3" t="n">
+      <c r="B12" s="4" t="n">
+        <v>250</v>
+      </c>
+      <c r="C12" s="4" t="n">
         <v>19.88</v>
       </c>
-      <c r="D12" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="E12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="4">
-        <f>SUM(C12:F12)</f>
-        <v/>
+      <c r="D12" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="13">
@@ -1183,29 +1089,28 @@
           <t>July</t>
         </is>
       </c>
-      <c r="B13" s="3" t="n">
-        <v>250</v>
-      </c>
-      <c r="C13" s="3" t="n">
+      <c r="B13" s="4" t="n">
+        <v>250</v>
+      </c>
+      <c r="C13" s="4" t="n">
         <v>8.94</v>
       </c>
-      <c r="D13" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="E13" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="4">
-        <f>SUM(C13:F13)</f>
-        <v/>
+      <c r="D13" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="E13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="16">
-      <c r="E16" s="3" t="n"/>
-      <c r="F16" s="3" t="n"/>
+      <c r="E16" s="4" t="n"/>
+      <c r="F16" s="4" t="n"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1213,7 +1118,7 @@
           <t>Paid</t>
         </is>
       </c>
-      <c r="B27" s="4" t="n"/>
+      <c r="B27" s="5" t="n"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1221,10 +1126,7 @@
           <t>Unpaid</t>
         </is>
       </c>
-      <c r="B28" s="4">
-        <f>SUM(B2:B11)</f>
-        <v/>
-      </c>
+      <c r="B28" s="5" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1288,23 +1190,20 @@
           <t>June</t>
         </is>
       </c>
-      <c r="B2" s="3" t="n">
-        <v>250</v>
-      </c>
-      <c r="C2" s="3" t="n"/>
-      <c r="D2" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="E2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="4">
-        <f>SUM(C2:F2)</f>
-        <v/>
-      </c>
+      <c r="B2" s="4" t="n">
+        <v>250</v>
+      </c>
+      <c r="C2" s="4" t="n"/>
+      <c r="D2" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5" t="n"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1312,103 +1211,100 @@
           <t>July</t>
         </is>
       </c>
-      <c r="B3" s="3" t="n">
-        <v>250</v>
-      </c>
-      <c r="C3" s="3" t="n"/>
-      <c r="D3" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="E3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4">
-        <f>SUM(C3:F3)</f>
-        <v/>
-      </c>
+      <c r="B3" s="4" t="n">
+        <v>250</v>
+      </c>
+      <c r="C3" s="4" t="n"/>
+      <c r="D3" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5" t="n"/>
     </row>
     <row r="4">
-      <c r="B4" s="3" t="n"/>
-      <c r="C4" s="3" t="n"/>
-      <c r="D4" s="3" t="n"/>
-      <c r="E4" s="3" t="n"/>
-      <c r="F4" s="3" t="n"/>
-      <c r="H4" s="4" t="n"/>
+      <c r="B4" s="4" t="n"/>
+      <c r="C4" s="4" t="n"/>
+      <c r="D4" s="4" t="n"/>
+      <c r="E4" s="4" t="n"/>
+      <c r="F4" s="4" t="n"/>
+      <c r="H4" s="5" t="n"/>
     </row>
     <row r="5">
-      <c r="B5" s="3" t="n"/>
-      <c r="C5" s="3" t="n"/>
-      <c r="D5" s="3" t="n"/>
-      <c r="E5" s="3" t="n"/>
-      <c r="F5" s="3" t="n"/>
-      <c r="H5" s="4" t="n"/>
+      <c r="B5" s="4" t="n"/>
+      <c r="C5" s="4" t="n"/>
+      <c r="D5" s="4" t="n"/>
+      <c r="E5" s="4" t="n"/>
+      <c r="F5" s="4" t="n"/>
+      <c r="H5" s="5" t="n"/>
     </row>
     <row r="6">
-      <c r="B6" s="3" t="n"/>
-      <c r="C6" s="3" t="n"/>
-      <c r="D6" s="3" t="n"/>
-      <c r="E6" s="3" t="n"/>
-      <c r="F6" s="3" t="n"/>
-      <c r="H6" s="4" t="n"/>
+      <c r="B6" s="4" t="n"/>
+      <c r="C6" s="4" t="n"/>
+      <c r="D6" s="4" t="n"/>
+      <c r="E6" s="4" t="n"/>
+      <c r="F6" s="4" t="n"/>
+      <c r="H6" s="5" t="n"/>
     </row>
     <row r="7">
-      <c r="B7" s="3" t="n"/>
-      <c r="C7" s="3" t="n"/>
-      <c r="D7" s="3" t="n"/>
-      <c r="E7" s="3" t="n"/>
-      <c r="F7" s="3" t="n"/>
-      <c r="H7" s="4" t="n"/>
+      <c r="B7" s="4" t="n"/>
+      <c r="C7" s="4" t="n"/>
+      <c r="D7" s="4" t="n"/>
+      <c r="E7" s="4" t="n"/>
+      <c r="F7" s="4" t="n"/>
+      <c r="H7" s="5" t="n"/>
     </row>
     <row r="8">
-      <c r="B8" s="3" t="n"/>
-      <c r="C8" s="3" t="n"/>
-      <c r="D8" s="3" t="n"/>
-      <c r="E8" s="3" t="n"/>
-      <c r="F8" s="3" t="n"/>
-      <c r="H8" s="4" t="n"/>
+      <c r="B8" s="4" t="n"/>
+      <c r="C8" s="4" t="n"/>
+      <c r="D8" s="4" t="n"/>
+      <c r="E8" s="4" t="n"/>
+      <c r="F8" s="4" t="n"/>
+      <c r="H8" s="5" t="n"/>
     </row>
     <row r="9">
-      <c r="B9" s="3" t="n"/>
-      <c r="C9" s="3" t="n"/>
-      <c r="D9" s="3" t="n"/>
-      <c r="E9" s="3" t="n"/>
-      <c r="F9" s="3" t="n"/>
-      <c r="H9" s="4" t="n"/>
+      <c r="B9" s="4" t="n"/>
+      <c r="C9" s="4" t="n"/>
+      <c r="D9" s="4" t="n"/>
+      <c r="E9" s="4" t="n"/>
+      <c r="F9" s="4" t="n"/>
+      <c r="H9" s="5" t="n"/>
     </row>
     <row r="10">
-      <c r="B10" s="3" t="n"/>
-      <c r="C10" s="3" t="n"/>
-      <c r="D10" s="3" t="n"/>
-      <c r="E10" s="3" t="n"/>
-      <c r="F10" s="3" t="n"/>
-      <c r="H10" s="4" t="n"/>
+      <c r="B10" s="4" t="n"/>
+      <c r="C10" s="4" t="n"/>
+      <c r="D10" s="4" t="n"/>
+      <c r="E10" s="4" t="n"/>
+      <c r="F10" s="4" t="n"/>
+      <c r="H10" s="5" t="n"/>
     </row>
     <row r="11">
-      <c r="B11" s="3" t="n"/>
-      <c r="C11" s="3" t="n"/>
-      <c r="D11" s="3" t="n"/>
-      <c r="E11" s="3" t="n"/>
-      <c r="F11" s="3" t="n"/>
-      <c r="H11" s="4" t="n"/>
+      <c r="B11" s="4" t="n"/>
+      <c r="C11" s="4" t="n"/>
+      <c r="D11" s="4" t="n"/>
+      <c r="E11" s="4" t="n"/>
+      <c r="F11" s="4" t="n"/>
+      <c r="H11" s="5" t="n"/>
     </row>
     <row r="12">
-      <c r="B12" s="3" t="n"/>
-      <c r="C12" s="3" t="n"/>
-      <c r="D12" s="3" t="n"/>
-      <c r="E12" s="3" t="n"/>
-      <c r="F12" s="3" t="n"/>
-      <c r="H12" s="4" t="n"/>
+      <c r="B12" s="4" t="n"/>
+      <c r="C12" s="4" t="n"/>
+      <c r="D12" s="4" t="n"/>
+      <c r="E12" s="4" t="n"/>
+      <c r="F12" s="4" t="n"/>
+      <c r="H12" s="5" t="n"/>
     </row>
     <row r="13">
-      <c r="B13" s="3" t="n"/>
-      <c r="C13" s="3" t="n"/>
-      <c r="D13" s="3" t="n"/>
-      <c r="E13" s="3" t="n"/>
-      <c r="F13" s="3" t="n"/>
-      <c r="H13" s="4" t="n"/>
+      <c r="B13" s="4" t="n"/>
+      <c r="C13" s="4" t="n"/>
+      <c r="D13" s="4" t="n"/>
+      <c r="E13" s="4" t="n"/>
+      <c r="F13" s="4" t="n"/>
+      <c r="H13" s="5" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Expenses.xlsx
+++ b/Expenses.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2940" yWindow="3576" windowWidth="17280" windowHeight="9420" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="1st year" sheetId="1" state="visible" r:id="rId1"/>
@@ -449,7 +449,7 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="9.77734375" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="10.109375" bestFit="1" customWidth="1" min="2" max="2"/>
@@ -778,16 +778,16 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="H19" sqref="H19:H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="11" customWidth="1" min="1" max="1"/>
     <col width="10.88671875" customWidth="1" min="2" max="2"/>
     <col width="9.5546875" customWidth="1" min="3" max="3"/>
-    <col width="14.77734375" customWidth="1" min="5" max="5"/>
-    <col width="15.6640625" customWidth="1" min="6" max="6"/>
+    <col width="9.21875" customWidth="1" min="5" max="5"/>
+    <col width="10" customWidth="1" min="6" max="6"/>
     <col width="13.5546875" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
@@ -841,12 +841,8 @@
       <c r="D2" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="E2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="6" t="n"/>
+      <c r="F2" s="6" t="n"/>
       <c r="H2" s="5" t="n">
         <v>20</v>
       </c>
@@ -864,12 +860,8 @@
       <c r="D3" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="E3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="6" t="n"/>
+      <c r="F3" s="6" t="n"/>
       <c r="H3" s="5" t="n">
         <v>20</v>
       </c>
@@ -887,12 +879,8 @@
       <c r="D4" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="E4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="E4" s="6" t="n"/>
+      <c r="F4" s="6" t="n"/>
       <c r="H4" s="5" t="n">
         <v>20</v>
       </c>
@@ -910,12 +898,8 @@
       <c r="D5" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="E5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="E5" s="6" t="n"/>
+      <c r="F5" s="6" t="n"/>
       <c r="H5" s="5" t="n">
         <v>20</v>
       </c>
@@ -933,12 +917,8 @@
       <c r="D6" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="E6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="E6" s="6" t="n"/>
+      <c r="F6" s="6" t="n"/>
       <c r="H6" s="5" t="n">
         <v>20</v>
       </c>
@@ -956,12 +936,8 @@
       <c r="D7" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="E7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="E7" s="6" t="n"/>
+      <c r="F7" s="6" t="n"/>
       <c r="H7" s="5" t="n">
         <v>20</v>
       </c>
@@ -979,12 +955,8 @@
       <c r="D8" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="E8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="E8" s="6" t="n"/>
+      <c r="F8" s="6" t="n"/>
       <c r="H8" s="5" t="n">
         <v>20</v>
       </c>
@@ -1002,12 +974,8 @@
       <c r="D9" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="E9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="E9" s="6" t="n"/>
+      <c r="F9" s="6" t="n"/>
       <c r="H9" s="5" t="n">
         <v>20</v>
       </c>
@@ -1025,12 +993,8 @@
       <c r="D10" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="E10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="E10" s="6" t="n"/>
+      <c r="F10" s="6" t="n"/>
       <c r="H10" s="5" t="n">
         <v>20</v>
       </c>
@@ -1048,12 +1012,8 @@
       <c r="D11" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="E11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="E11" s="6" t="n"/>
+      <c r="F11" s="6" t="n"/>
       <c r="H11" s="5" t="n">
         <v>20</v>
       </c>
@@ -1074,10 +1034,10 @@
         <v>20</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="4" t="n">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>45</v>
       </c>
       <c r="H12" s="5" t="n">
         <v>20</v>
@@ -1098,11 +1058,11 @@
       <c r="D13" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="E13" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="4" t="n">
-        <v>0</v>
+      <c r="E13" s="6" t="n">
+        <v>353</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>353</v>
       </c>
       <c r="H13" s="5" t="n">
         <v>20</v>

--- a/Expenses.xlsx
+++ b/Expenses.xlsx
@@ -11,7 +11,7 @@
     <sheet name="&quot;Leftover" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -446,7 +446,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
@@ -502,13 +502,19 @@
       <c r="B2" s="4" t="n">
         <v>250</v>
       </c>
-      <c r="C2" s="4" t="n"/>
-      <c r="D2" s="4" t="n"/>
+      <c r="C2" s="4" t="n">
+        <v>18.66666666666667</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>13.33333333333333</v>
+      </c>
       <c r="E2" s="4" t="n">
         <v>14</v>
       </c>
       <c r="F2" s="4" t="n"/>
-      <c r="H2" s="5" t="n"/>
+      <c r="H2" s="5" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -519,15 +525,21 @@
       <c r="B3" s="4" t="n">
         <v>250</v>
       </c>
-      <c r="C3" s="4" t="n"/>
+      <c r="C3" s="4" t="n">
+        <v>41.175</v>
+      </c>
       <c r="D3" s="4" t="n">
         <v>20</v>
       </c>
       <c r="E3" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="F3" s="4" t="n"/>
-      <c r="H3" s="5" t="n"/>
+      <c r="F3" s="4" t="n">
+        <v>25.895</v>
+      </c>
+      <c r="H3" s="5" t="n">
+        <v>95.06999999999999</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -538,7 +550,9 @@
       <c r="B4" s="4" t="n">
         <v>250</v>
       </c>
-      <c r="C4" s="4" t="n"/>
+      <c r="C4" s="4" t="n">
+        <v>32.545</v>
+      </c>
       <c r="D4" s="4" t="n">
         <v>20</v>
       </c>
@@ -546,7 +560,9 @@
         <v>8</v>
       </c>
       <c r="F4" s="4" t="n"/>
-      <c r="H4" s="5" t="n"/>
+      <c r="H4" s="5" t="n">
+        <v>60.545</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -557,7 +573,9 @@
       <c r="B5" s="4" t="n">
         <v>250</v>
       </c>
-      <c r="C5" s="4" t="n"/>
+      <c r="C5" s="4" t="n">
+        <v>22.74</v>
+      </c>
       <c r="D5" s="4" t="n">
         <v>20</v>
       </c>
@@ -567,7 +585,9 @@
       <c r="F5" s="4" t="n">
         <v>6.7</v>
       </c>
-      <c r="H5" s="5" t="n"/>
+      <c r="H5" s="5" t="n">
+        <v>59.44</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -578,7 +598,9 @@
       <c r="B6" s="4" t="n">
         <v>250</v>
       </c>
-      <c r="C6" s="4" t="n"/>
+      <c r="C6" s="4" t="n">
+        <v>19.36</v>
+      </c>
       <c r="D6" s="4" t="n">
         <v>20</v>
       </c>
@@ -586,7 +608,9 @@
         <v>16</v>
       </c>
       <c r="F6" s="4" t="n"/>
-      <c r="H6" s="5" t="n"/>
+      <c r="H6" s="5" t="n">
+        <v>55.36</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -597,15 +621,21 @@
       <c r="B7" s="4" t="n">
         <v>250</v>
       </c>
-      <c r="C7" s="4" t="n"/>
+      <c r="C7" s="4" t="n">
+        <v>15.955</v>
+      </c>
       <c r="D7" s="4" t="n">
         <v>20</v>
       </c>
       <c r="E7" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="F7" s="4" t="n"/>
-      <c r="H7" s="5" t="n"/>
+      <c r="F7" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>60.955</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -616,20 +646,26 @@
       <c r="B8" s="4" t="n">
         <v>250</v>
       </c>
-      <c r="C8" s="4" t="n"/>
+      <c r="C8" s="4" t="n">
+        <v>25.435</v>
+      </c>
       <c r="D8" s="4" t="n">
         <v>20</v>
       </c>
       <c r="E8" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="F8" s="4" t="n"/>
+      <c r="F8" s="4" t="n">
+        <v>6.75</v>
+      </c>
       <c r="G8" t="inlineStr">
         <is>
           <t>paper towels</t>
         </is>
       </c>
-      <c r="H8" s="5" t="n"/>
+      <c r="H8" s="5" t="n">
+        <v>62.185</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -640,7 +676,9 @@
       <c r="B9" s="4" t="n">
         <v>250</v>
       </c>
-      <c r="C9" s="4" t="n"/>
+      <c r="C9" s="4" t="n">
+        <v>17.845</v>
+      </c>
       <c r="D9" s="4" t="n">
         <v>20</v>
       </c>
@@ -655,7 +693,9 @@
           <t>garbage bags</t>
         </is>
       </c>
-      <c r="H9" s="5" t="n"/>
+      <c r="H9" s="5" t="n">
+        <v>42.845</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -666,20 +706,26 @@
       <c r="B10" s="4" t="n">
         <v>250</v>
       </c>
-      <c r="C10" s="4" t="n"/>
+      <c r="C10" s="4" t="n">
+        <v>27.985</v>
+      </c>
       <c r="D10" s="4" t="n">
         <v>20</v>
       </c>
       <c r="E10" s="4" t="n">
         <v>18</v>
       </c>
-      <c r="F10" s="4" t="n"/>
+      <c r="F10" s="4" t="n">
+        <v>4.5</v>
+      </c>
       <c r="G10" t="inlineStr">
         <is>
           <t>bagel, soap</t>
         </is>
       </c>
-      <c r="H10" s="5" t="n"/>
+      <c r="H10" s="5" t="n">
+        <v>70.485</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -690,7 +736,9 @@
       <c r="B11" s="4" t="n">
         <v>250</v>
       </c>
-      <c r="C11" s="4" t="n"/>
+      <c r="C11" s="4" t="n">
+        <v>19.88</v>
+      </c>
       <c r="D11" s="4" t="n">
         <v>20</v>
       </c>
@@ -698,7 +746,9 @@
         <v>0</v>
       </c>
       <c r="F11" s="4" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="H11" s="5" t="n">
+        <v>39.88</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -709,7 +759,9 @@
       <c r="B12" s="4" t="n">
         <v>250</v>
       </c>
-      <c r="C12" s="4" t="n"/>
+      <c r="C12" s="4" t="n">
+        <v>8.94</v>
+      </c>
       <c r="D12" s="4" t="n">
         <v>20</v>
       </c>
@@ -717,7 +769,9 @@
         <v>0</v>
       </c>
       <c r="F12" s="4" t="n"/>
-      <c r="H12" s="5" t="n"/>
+      <c r="H12" s="5" t="n">
+        <v>28.94</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -754,7 +808,9 @@
           <t>Paid</t>
         </is>
       </c>
-      <c r="B27" s="5" t="n"/>
+      <c r="B27" s="5" t="n">
+        <v>2000</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -762,7 +818,9 @@
           <t>Unpaid</t>
         </is>
       </c>
-      <c r="B28" s="5" t="n"/>
+      <c r="B28" s="5" t="n">
+        <v>750</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -778,7 +836,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19:H20"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
@@ -841,8 +899,12 @@
       <c r="D2" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="E2" s="6" t="n"/>
-      <c r="F2" s="6" t="n"/>
+      <c r="E2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="6" t="n">
+        <v>0</v>
+      </c>
       <c r="H2" s="5" t="n">
         <v>20</v>
       </c>
@@ -860,8 +922,12 @@
       <c r="D3" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="E3" s="6" t="n"/>
-      <c r="F3" s="6" t="n"/>
+      <c r="E3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="6" t="n">
+        <v>0</v>
+      </c>
       <c r="H3" s="5" t="n">
         <v>20</v>
       </c>
@@ -879,8 +945,12 @@
       <c r="D4" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="E4" s="6" t="n"/>
-      <c r="F4" s="6" t="n"/>
+      <c r="E4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0</v>
+      </c>
       <c r="H4" s="5" t="n">
         <v>20</v>
       </c>
@@ -898,8 +968,12 @@
       <c r="D5" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="E5" s="6" t="n"/>
-      <c r="F5" s="6" t="n"/>
+      <c r="E5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>0</v>
+      </c>
       <c r="H5" s="5" t="n">
         <v>20</v>
       </c>
@@ -917,8 +991,12 @@
       <c r="D6" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="E6" s="6" t="n"/>
-      <c r="F6" s="6" t="n"/>
+      <c r="E6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0</v>
+      </c>
       <c r="H6" s="5" t="n">
         <v>20</v>
       </c>
@@ -936,8 +1014,12 @@
       <c r="D7" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="E7" s="6" t="n"/>
-      <c r="F7" s="6" t="n"/>
+      <c r="E7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0</v>
+      </c>
       <c r="H7" s="5" t="n">
         <v>20</v>
       </c>
@@ -955,8 +1037,12 @@
       <c r="D8" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="E8" s="6" t="n"/>
-      <c r="F8" s="6" t="n"/>
+      <c r="E8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>0</v>
+      </c>
       <c r="H8" s="5" t="n">
         <v>20</v>
       </c>
@@ -974,8 +1060,12 @@
       <c r="D9" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="E9" s="6" t="n"/>
-      <c r="F9" s="6" t="n"/>
+      <c r="E9" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0</v>
+      </c>
       <c r="H9" s="5" t="n">
         <v>20</v>
       </c>
@@ -993,8 +1083,12 @@
       <c r="D10" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="E10" s="6" t="n"/>
-      <c r="F10" s="6" t="n"/>
+      <c r="E10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0</v>
+      </c>
       <c r="H10" s="5" t="n">
         <v>20</v>
       </c>
@@ -1012,8 +1106,12 @@
       <c r="D11" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="E11" s="6" t="n"/>
-      <c r="F11" s="6" t="n"/>
+      <c r="E11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>0</v>
+      </c>
       <c r="H11" s="5" t="n">
         <v>20</v>
       </c>
@@ -1034,10 +1132,10 @@
         <v>20</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="H12" s="5" t="n">
         <v>20</v>
@@ -1059,10 +1157,10 @@
         <v>20</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="H13" s="5" t="n">
         <v>20</v>
